--- a/train-second.xlsx
+++ b/train-second.xlsx
@@ -1266,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:I849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1335,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>72.734</v>
@@ -1364,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>158.666</v>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>159.99</v>
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>158.711</v>
@@ -1451,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>158.615</v>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>161.386</v>
@@ -1509,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>162.038</v>
@@ -1538,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>162.644</v>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>162.007</v>
@@ -1596,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>181.825</v>
@@ -1625,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>170.148</v>
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>176.996</v>
@@ -1683,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>171.153</v>
@@ -1712,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>167.773</v>
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>168.164</v>
@@ -1770,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>165.631</v>
@@ -1799,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>172.508</v>
@@ -1828,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>171.665</v>
@@ -1944,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>174.749</v>
@@ -2002,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>103.101</v>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>149.485</v>
@@ -2060,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>173.578</v>
@@ -2176,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>198.053</v>
@@ -2205,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>189.146</v>
@@ -2234,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>199.276</v>
@@ -2292,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>213.288</v>
@@ -2727,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>162.264</v>
@@ -3191,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>123.442</v>
@@ -3336,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>176.341</v>
@@ -3394,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>182.967</v>
@@ -3742,7 +3742,7 @@
         <v>9</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
         <v>196.245</v>
@@ -3771,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>207.291</v>
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>203.081</v>
@@ -3858,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>174.314</v>
@@ -3916,7 +3916,7 @@
         <v>9</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>196.232</v>
@@ -3945,7 +3945,7 @@
         <v>9</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>218.656</v>
@@ -3974,7 +3974,7 @@
         <v>9</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>356.106</v>
@@ -4003,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>190.887</v>
@@ -4032,7 +4032,7 @@
         <v>9</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>177.142</v>
@@ -4090,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>165.888</v>
@@ -4148,7 +4148,7 @@
         <v>10</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>160.729</v>
@@ -4438,7 +4438,7 @@
         <v>10</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>171.798</v>
@@ -4525,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>193.074</v>
@@ -4554,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>188.447</v>
@@ -4583,7 +4583,7 @@
         <v>10</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>176.183</v>
@@ -4612,7 +4612,7 @@
         <v>10</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>184.508</v>
@@ -4641,7 +4641,7 @@
         <v>10</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>191.613</v>
@@ -4670,7 +4670,7 @@
         <v>10</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>192.709</v>
@@ -4699,7 +4699,7 @@
         <v>10</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>183.164</v>
@@ -4728,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>175.701</v>
@@ -4757,7 +4757,7 @@
         <v>10</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121">
         <v>180.339</v>
@@ -4786,7 +4786,7 @@
         <v>10</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
         <v>179.41</v>
@@ -4815,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>175.971</v>
@@ -4844,7 +4844,7 @@
         <v>10</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>178.026</v>
@@ -4873,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>180.642</v>
@@ -4902,7 +4902,7 @@
         <v>10</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>177.418</v>
@@ -4931,7 +4931,7 @@
         <v>10</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>181.757</v>
@@ -4960,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>184.536</v>
@@ -4989,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <v>178.836</v>
@@ -5018,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>178.819</v>
@@ -5047,7 +5047,7 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>186.378</v>
@@ -5076,7 +5076,7 @@
         <v>10</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132">
         <v>174.544</v>
@@ -5105,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
         <v>181.282</v>
@@ -5134,7 +5134,7 @@
         <v>10</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>193.229</v>
@@ -5163,7 +5163,7 @@
         <v>10</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
         <v>187.172</v>
@@ -5192,7 +5192,7 @@
         <v>10</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136">
         <v>189.167</v>
@@ -5221,7 +5221,7 @@
         <v>10</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>185.876</v>
@@ -5250,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>195.759</v>
@@ -5279,7 +5279,7 @@
         <v>10</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>213.005</v>
@@ -5308,7 +5308,7 @@
         <v>10</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>207.693</v>
@@ -5337,7 +5337,7 @@
         <v>10</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>204.293</v>
@@ -5395,7 +5395,7 @@
         <v>10</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143">
         <v>183.592</v>
@@ -5685,7 +5685,7 @@
         <v>10</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153">
         <v>194.573</v>
@@ -5714,7 +5714,7 @@
         <v>10</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>199.152</v>
@@ -5743,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>214.849</v>
@@ -5772,7 +5772,7 @@
         <v>10</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>207.325</v>
@@ -5801,7 +5801,7 @@
         <v>10</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>208.796</v>
@@ -5830,7 +5830,7 @@
         <v>10</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>216.394</v>
@@ -5859,7 +5859,7 @@
         <v>10</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159">
         <v>193.492</v>
@@ -5946,7 +5946,7 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162">
         <v>196.745</v>
@@ -5975,7 +5975,7 @@
         <v>10</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163">
         <v>201.476</v>
@@ -6961,7 +6961,7 @@
         <v>10</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197">
         <v>187.911</v>
@@ -6990,7 +6990,7 @@
         <v>10</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198">
         <v>203.248</v>
@@ -7019,7 +7019,7 @@
         <v>10</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199">
         <v>206.396</v>
@@ -7715,7 +7715,7 @@
         <v>10</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223">
         <v>182.158</v>
@@ -7889,7 +7889,7 @@
         <v>10</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229">
         <v>203.697</v>
@@ -7918,7 +7918,7 @@
         <v>10</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230">
         <v>184.242</v>
@@ -7947,7 +7947,7 @@
         <v>10</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231">
         <v>202.452</v>
@@ -7976,7 +7976,7 @@
         <v>10</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232">
         <v>168.856</v>
@@ -8005,7 +8005,7 @@
         <v>10</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233">
         <v>138.054</v>
@@ -8092,7 +8092,7 @@
         <v>11</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236">
         <v>116.948</v>
@@ -8150,7 +8150,7 @@
         <v>11</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238">
         <v>160.706</v>
@@ -8585,7 +8585,7 @@
         <v>11</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253">
         <v>117.074</v>
@@ -8701,7 +8701,7 @@
         <v>11</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257">
         <v>160.396</v>
@@ -8846,7 +8846,7 @@
         <v>11</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262">
         <v>199.292</v>
@@ -8875,7 +8875,7 @@
         <v>11</v>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263">
         <v>204.387</v>
@@ -8904,7 +8904,7 @@
         <v>11</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264">
         <v>190.506</v>
@@ -8991,7 +8991,7 @@
         <v>11</v>
       </c>
       <c r="B267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267">
         <v>188.604</v>
@@ -9049,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269">
         <v>196.233</v>
@@ -9078,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270">
         <v>198.917</v>
@@ -9107,7 +9107,7 @@
         <v>11</v>
       </c>
       <c r="B271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271">
         <v>187.104</v>
@@ -9136,7 +9136,7 @@
         <v>11</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272">
         <v>187.42</v>
@@ -9165,7 +9165,7 @@
         <v>11</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273">
         <v>188.588</v>
@@ -9194,7 +9194,7 @@
         <v>11</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274">
         <v>198.933</v>
@@ -9223,7 +9223,7 @@
         <v>11</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275">
         <v>199.656</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>196.461</v>
@@ -9281,7 +9281,7 @@
         <v>11</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277">
         <v>194.005</v>
@@ -9310,7 +9310,7 @@
         <v>11</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278">
         <v>189.726</v>
@@ -9339,7 +9339,7 @@
         <v>11</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279">
         <v>192.788</v>
@@ -9368,7 +9368,7 @@
         <v>11</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280">
         <v>197.961</v>
@@ -9397,7 +9397,7 @@
         <v>11</v>
       </c>
       <c r="B281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281">
         <v>197.287</v>
@@ -9426,7 +9426,7 @@
         <v>11</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282">
         <v>205.067</v>
@@ -9455,7 +9455,7 @@
         <v>11</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283">
         <v>209.411</v>
@@ -9484,7 +9484,7 @@
         <v>11</v>
       </c>
       <c r="B284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284">
         <v>211.269</v>
@@ -9513,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="B285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285">
         <v>230.068</v>
@@ -9542,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286">
         <v>216.469</v>
@@ -9571,7 +9571,7 @@
         <v>11</v>
       </c>
       <c r="B287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287">
         <v>222.377</v>
@@ -9600,7 +9600,7 @@
         <v>11</v>
       </c>
       <c r="B288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288">
         <v>163.135</v>
@@ -9629,7 +9629,7 @@
         <v>11</v>
       </c>
       <c r="B289">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289">
         <v>165.213</v>
@@ -9658,7 +9658,7 @@
         <v>11</v>
       </c>
       <c r="B290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290">
         <v>211.116</v>
@@ -9687,7 +9687,7 @@
         <v>11</v>
       </c>
       <c r="B291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291">
         <v>218.077</v>
@@ -9716,7 +9716,7 @@
         <v>11</v>
       </c>
       <c r="B292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292">
         <v>215.081</v>
@@ -9745,7 +9745,7 @@
         <v>11</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C293">
         <v>210.757</v>
@@ -9774,7 +9774,7 @@
         <v>11</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294">
         <v>212.837</v>
@@ -9803,7 +9803,7 @@
         <v>11</v>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295">
         <v>219.99</v>
@@ -9832,7 +9832,7 @@
         <v>11</v>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296">
         <v>216.792</v>
@@ -9861,7 +9861,7 @@
         <v>11</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297">
         <v>215.166</v>
@@ -9890,7 +9890,7 @@
         <v>11</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298">
         <v>207.258</v>
@@ -9919,7 +9919,7 @@
         <v>11</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C299">
         <v>222.459</v>
@@ -9948,7 +9948,7 @@
         <v>11</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300">
         <v>187.233</v>
@@ -9977,7 +9977,7 @@
         <v>11</v>
       </c>
       <c r="B301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301">
         <v>183.019</v>
@@ -10006,7 +10006,7 @@
         <v>11</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302">
         <v>219.537</v>
@@ -10035,7 +10035,7 @@
         <v>11</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303">
         <v>222.648</v>
@@ -10064,7 +10064,7 @@
         <v>11</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304">
         <v>207.183</v>
@@ -10093,7 +10093,7 @@
         <v>11</v>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305">
         <v>197.487</v>
@@ -10122,7 +10122,7 @@
         <v>11</v>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306">
         <v>210.274</v>
@@ -10151,7 +10151,7 @@
         <v>11</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307">
         <v>200.055</v>
@@ -10180,7 +10180,7 @@
         <v>11</v>
       </c>
       <c r="B308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308">
         <v>175.625</v>
@@ -10209,7 +10209,7 @@
         <v>11</v>
       </c>
       <c r="B309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C309">
         <v>173.385</v>
@@ -10238,7 +10238,7 @@
         <v>11</v>
       </c>
       <c r="B310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310">
         <v>173.186</v>
@@ -10296,7 +10296,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C312">
         <v>170.72</v>
@@ -10325,7 +10325,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C313">
         <v>182.357</v>
@@ -10354,7 +10354,7 @@
         <v>11</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314">
         <v>185.35</v>
@@ -10383,7 +10383,7 @@
         <v>11</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C315">
         <v>178.57</v>
@@ -10499,7 +10499,7 @@
         <v>11</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319">
         <v>218.361</v>
@@ -11021,7 +11021,7 @@
         <v>11</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C337">
         <v>199.402</v>
@@ -11717,7 +11717,7 @@
         <v>11</v>
       </c>
       <c r="B361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361">
         <v>206.489</v>
@@ -11804,7 +11804,7 @@
         <v>11</v>
       </c>
       <c r="B364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C364">
         <v>201.109</v>
@@ -12761,7 +12761,7 @@
         <v>11</v>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C397">
         <v>259.915</v>
@@ -12790,7 +12790,7 @@
         <v>11</v>
       </c>
       <c r="B398">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C398">
         <v>293.19</v>
@@ -12819,7 +12819,7 @@
         <v>11</v>
       </c>
       <c r="B399">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C399">
         <v>387.609</v>
@@ -12848,7 +12848,7 @@
         <v>11</v>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C400">
         <v>436.878</v>
@@ -12877,7 +12877,7 @@
         <v>11</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C401">
         <v>457.92</v>
@@ -12906,7 +12906,7 @@
         <v>11</v>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C402">
         <v>308.532</v>
@@ -12935,7 +12935,7 @@
         <v>11</v>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C403">
         <v>244.393</v>
@@ -12964,7 +12964,7 @@
         <v>11</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C404">
         <v>232.701</v>
@@ -12993,7 +12993,7 @@
         <v>11</v>
       </c>
       <c r="B405">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C405">
         <v>226.247</v>
@@ -13022,7 +13022,7 @@
         <v>11</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406">
         <v>221.863</v>
@@ -13051,7 +13051,7 @@
         <v>11</v>
       </c>
       <c r="B407">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C407">
         <v>225.801</v>
@@ -13080,7 +13080,7 @@
         <v>11</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408">
         <v>184.389</v>
@@ -13109,7 +13109,7 @@
         <v>11</v>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C409">
         <v>172.042</v>
@@ -13138,7 +13138,7 @@
         <v>11</v>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C410">
         <v>155.465</v>
@@ -13167,7 +13167,7 @@
         <v>11</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C411">
         <v>161.828</v>
@@ -13254,7 +13254,7 @@
         <v>11</v>
       </c>
       <c r="B414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C414">
         <v>137.797</v>
@@ -13283,7 +13283,7 @@
         <v>11</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C415">
         <v>81.539</v>
@@ -13312,7 +13312,7 @@
         <v>12</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C416">
         <v>183.139</v>
@@ -13341,7 +13341,7 @@
         <v>12</v>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C417">
         <v>178.192</v>
@@ -13486,7 +13486,7 @@
         <v>12</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C422">
         <v>198.02</v>
@@ -13515,7 +13515,7 @@
         <v>12</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C423">
         <v>200.315</v>
@@ -13544,7 +13544,7 @@
         <v>12</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C424">
         <v>203.809</v>
@@ -13573,7 +13573,7 @@
         <v>12</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C425">
         <v>193.824</v>
@@ -13602,7 +13602,7 @@
         <v>12</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C426">
         <v>199.771</v>
@@ -13689,7 +13689,7 @@
         <v>12</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C429">
         <v>193.199</v>
@@ -14008,7 +14008,7 @@
         <v>12</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C440">
         <v>189.524</v>
@@ -14704,7 +14704,7 @@
         <v>12</v>
       </c>
       <c r="B464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C464">
         <v>196.759</v>
@@ -14965,7 +14965,7 @@
         <v>13</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C473">
         <v>173.028</v>
@@ -15023,7 +15023,7 @@
         <v>13</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C475">
         <v>170.421</v>
@@ -15110,7 +15110,7 @@
         <v>13</v>
       </c>
       <c r="B478">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C478">
         <v>180.659</v>
@@ -15139,7 +15139,7 @@
         <v>13</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C479">
         <v>199.889</v>
@@ -15168,7 +15168,7 @@
         <v>13</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C480">
         <v>221.301</v>
@@ -15197,7 +15197,7 @@
         <v>13</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C481">
         <v>168.284</v>
@@ -15342,7 +15342,7 @@
         <v>14</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C486">
         <v>161.634</v>
@@ -15371,7 +15371,7 @@
         <v>14</v>
       </c>
       <c r="B487">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C487">
         <v>175.889</v>
@@ -15400,7 +15400,7 @@
         <v>14</v>
       </c>
       <c r="B488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C488">
         <v>173.022</v>
@@ -15429,7 +15429,7 @@
         <v>14</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C489">
         <v>196.176</v>
@@ -15487,7 +15487,7 @@
         <v>14</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C491">
         <v>137.358</v>
@@ -15516,7 +15516,7 @@
         <v>14</v>
       </c>
       <c r="B492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C492">
         <v>178.712</v>
@@ -15574,7 +15574,7 @@
         <v>15</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C494">
         <v>121.653</v>
@@ -15603,7 +15603,7 @@
         <v>15</v>
       </c>
       <c r="B495">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C495">
         <v>148.658</v>
@@ -15632,7 +15632,7 @@
         <v>15</v>
       </c>
       <c r="B496">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C496">
         <v>68.575</v>
@@ -15690,7 +15690,7 @@
         <v>15</v>
       </c>
       <c r="B498">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C498">
         <v>203.933</v>
@@ -15893,7 +15893,7 @@
         <v>15</v>
       </c>
       <c r="B505">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C505">
         <v>171.071</v>
@@ -15922,7 +15922,7 @@
         <v>15</v>
       </c>
       <c r="B506">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C506">
         <v>182.316</v>
@@ -16270,7 +16270,7 @@
         <v>16</v>
       </c>
       <c r="B518">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C518">
         <v>179.036</v>
@@ -16299,7 +16299,7 @@
         <v>16</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C519">
         <v>201.873</v>
@@ -16328,7 +16328,7 @@
         <v>16</v>
       </c>
       <c r="B520">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C520">
         <v>192.358</v>
@@ -16357,7 +16357,7 @@
         <v>16</v>
       </c>
       <c r="B521">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C521">
         <v>192.832</v>
@@ -16386,7 +16386,7 @@
         <v>16</v>
       </c>
       <c r="B522">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C522">
         <v>198.012</v>
@@ -16415,7 +16415,7 @@
         <v>16</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C523">
         <v>188.383</v>
@@ -16444,7 +16444,7 @@
         <v>16</v>
       </c>
       <c r="B524">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C524">
         <v>194.526</v>
@@ -16473,7 +16473,7 @@
         <v>16</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C525">
         <v>194.546</v>
@@ -16531,7 +16531,7 @@
         <v>16</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C527">
         <v>175.776</v>
@@ -16560,7 +16560,7 @@
         <v>16</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C528">
         <v>175.23</v>
@@ -16589,7 +16589,7 @@
         <v>16</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C529">
         <v>165.266</v>
@@ -16618,7 +16618,7 @@
         <v>16</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C530">
         <v>182.675</v>
@@ -16705,7 +16705,7 @@
         <v>17</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C533">
         <v>108.453</v>
@@ -16734,7 +16734,7 @@
         <v>17</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C534">
         <v>100.095</v>
@@ -16763,7 +16763,7 @@
         <v>17</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C535">
         <v>96.446</v>
@@ -16792,7 +16792,7 @@
         <v>17</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C536">
         <v>96.394</v>
@@ -16821,7 +16821,7 @@
         <v>17</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C537">
         <v>99.797</v>
@@ -16850,7 +16850,7 @@
         <v>17</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C538">
         <v>106.947</v>
@@ -16879,7 +16879,7 @@
         <v>18</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C539">
         <v>103.32</v>
@@ -16908,7 +16908,7 @@
         <v>18</v>
       </c>
       <c r="B540">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C540">
         <v>91.981</v>
@@ -16937,7 +16937,7 @@
         <v>18</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C541">
         <v>83.162</v>
@@ -16966,7 +16966,7 @@
         <v>18</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C542">
         <v>79.071</v>
@@ -16995,7 +16995,7 @@
         <v>18</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C543">
         <v>79.154</v>
@@ -17024,7 +17024,7 @@
         <v>18</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544">
         <v>82.979</v>
@@ -17053,7 +17053,7 @@
         <v>18</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C545">
         <v>90.174</v>
@@ -17082,7 +17082,7 @@
         <v>18</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546">
         <v>100.108</v>
@@ -17111,7 +17111,7 @@
         <v>19</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C547">
         <v>104.65</v>
@@ -17137,7 +17137,7 @@
         <v>19</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C548">
         <v>100.639</v>
@@ -17163,7 +17163,7 @@
         <v>19</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C549">
         <v>98.641</v>
@@ -17189,7 +17189,7 @@
         <v>19</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C550">
         <v>98.65</v>
@@ -17215,7 +17215,7 @@
         <v>19</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C551">
         <v>99.89</v>
@@ -17241,7 +17241,7 @@
         <v>19</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C552">
         <v>101.481</v>
@@ -17267,7 +17267,7 @@
         <v>19</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C553">
         <v>103.575</v>
@@ -17293,7 +17293,7 @@
         <v>19</v>
       </c>
       <c r="B554">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C554">
         <v>106.644</v>
@@ -17319,7 +17319,7 @@
         <v>20</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C555">
         <v>109.298</v>
@@ -17345,7 +17345,7 @@
         <v>20</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C556">
         <v>107.751</v>
@@ -17371,7 +17371,7 @@
         <v>20</v>
       </c>
       <c r="B557">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C557">
         <v>106.61</v>
@@ -17397,7 +17397,7 @@
         <v>20</v>
       </c>
       <c r="B558">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C558">
         <v>105.448</v>
@@ -17423,7 +17423,7 @@
         <v>20</v>
       </c>
       <c r="B559">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C559">
         <v>104.314</v>
@@ -17449,7 +17449,7 @@
         <v>20</v>
       </c>
       <c r="B560">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C560">
         <v>103.66</v>
@@ -17475,7 +17475,7 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C561">
         <v>103.011</v>
@@ -17501,7 +17501,7 @@
         <v>20</v>
       </c>
       <c r="B562">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C562">
         <v>102.357</v>
@@ -17527,7 +17527,7 @@
         <v>20</v>
       </c>
       <c r="B563">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C563">
         <v>102.286</v>
@@ -17553,7 +17553,7 @@
         <v>20</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C564">
         <v>102.37</v>
@@ -17579,7 +17579,7 @@
         <v>20</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C565">
         <v>102.633</v>
@@ -17605,7 +17605,7 @@
         <v>20</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C566">
         <v>102.9</v>
@@ -17631,7 +17631,7 @@
         <v>20</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C567">
         <v>103.693</v>
@@ -17657,7 +17657,7 @@
         <v>20</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C568">
         <v>104.481</v>
@@ -17683,7 +17683,7 @@
         <v>20</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C569">
         <v>105.339</v>
@@ -17709,7 +17709,7 @@
         <v>20</v>
       </c>
       <c r="B570">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C570">
         <v>106.536</v>
@@ -17735,7 +17735,7 @@
         <v>20</v>
       </c>
       <c r="B571">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C571">
         <v>107.744</v>
@@ -17761,7 +17761,7 @@
         <v>20</v>
       </c>
       <c r="B572">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C572">
         <v>108.944</v>
@@ -17787,7 +17787,7 @@
         <v>21</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C573">
         <v>109.87</v>
@@ -17810,7 +17810,7 @@
         <v>21</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C574">
         <v>108.125</v>
@@ -17833,7 +17833,7 @@
         <v>21</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C575">
         <v>108.945</v>
@@ -17856,7 +17856,7 @@
         <v>22</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C576">
         <v>109.224</v>
@@ -17879,7 +17879,7 @@
         <v>22</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C577">
         <v>102.908</v>
@@ -17902,7 +17902,7 @@
         <v>22</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C578">
         <v>100.02</v>
@@ -17925,7 +17925,7 @@
         <v>22</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C579">
         <v>99.68</v>
@@ -17948,7 +17948,7 @@
         <v>22</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C580">
         <v>101.063</v>
@@ -17971,7 +17971,7 @@
         <v>22</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C581">
         <v>103.622</v>
@@ -17994,7 +17994,7 @@
         <v>22</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C582">
         <v>106.835</v>
@@ -18017,7 +18017,7 @@
         <v>23</v>
       </c>
       <c r="B583">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C583">
         <v>106.064</v>
@@ -18040,7 +18040,7 @@
         <v>23</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C584">
         <v>104.312</v>
@@ -18063,7 +18063,7 @@
         <v>23</v>
       </c>
       <c r="B585">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C585">
         <v>104.657</v>
@@ -18086,7 +18086,7 @@
         <v>23</v>
       </c>
       <c r="B586">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C586">
         <v>105.486</v>
@@ -18109,7 +18109,7 @@
         <v>23</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C587">
         <v>106.65</v>
@@ -18132,7 +18132,7 @@
         <v>23</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C588">
         <v>109.742</v>
@@ -18155,7 +18155,7 @@
         <v>24</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C589">
         <v>109.897</v>
@@ -18178,7 +18178,7 @@
         <v>24</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C590">
         <v>104.209</v>
@@ -18201,7 +18201,7 @@
         <v>24</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C591">
         <v>99.027</v>
@@ -18224,7 +18224,7 @@
         <v>24</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C592">
         <v>94.662</v>
@@ -18247,7 +18247,7 @@
         <v>24</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C593">
         <v>91.462</v>
@@ -18270,7 +18270,7 @@
         <v>24</v>
       </c>
       <c r="B594">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C594">
         <v>89.63</v>
@@ -18293,7 +18293,7 @@
         <v>24</v>
       </c>
       <c r="B595">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C595">
         <v>89.1</v>
@@ -18316,7 +18316,7 @@
         <v>24</v>
       </c>
       <c r="B596">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C596">
         <v>89.992</v>
@@ -18339,7 +18339,7 @@
         <v>24</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C597">
         <v>91.776</v>
@@ -18362,7 +18362,7 @@
         <v>24</v>
       </c>
       <c r="B598">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C598">
         <v>94.464</v>
@@ -18385,7 +18385,7 @@
         <v>24</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C599">
         <v>98.095</v>
@@ -18408,7 +18408,7 @@
         <v>24</v>
       </c>
       <c r="B600">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C600">
         <v>102.716</v>
@@ -18431,7 +18431,7 @@
         <v>24</v>
       </c>
       <c r="B601">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C601">
         <v>108.52</v>
@@ -18454,7 +18454,7 @@
         <v>25</v>
       </c>
       <c r="B602">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C602">
         <v>105.896</v>
@@ -18477,7 +18477,7 @@
         <v>25</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C603">
         <v>97.389</v>
@@ -18500,7 +18500,7 @@
         <v>25</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C604">
         <v>90.809</v>
@@ -18523,7 +18523,7 @@
         <v>25</v>
       </c>
       <c r="B605">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C605">
         <v>87.61</v>
@@ -18546,7 +18546,7 @@
         <v>25</v>
       </c>
       <c r="B606">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C606">
         <v>86.579</v>
@@ -18569,7 +18569,7 @@
         <v>25</v>
       </c>
       <c r="B607">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C607">
         <v>86.749</v>
@@ -18592,7 +18592,7 @@
         <v>25</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C608">
         <v>87.433</v>
@@ -18615,7 +18615,7 @@
         <v>25</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C609">
         <v>88.266</v>
@@ -18638,7 +18638,7 @@
         <v>25</v>
       </c>
       <c r="B610">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C610">
         <v>89.432</v>
@@ -18661,7 +18661,7 @@
         <v>25</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C611">
         <v>91.519</v>
@@ -18684,7 +18684,7 @@
         <v>25</v>
       </c>
       <c r="B612">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C612">
         <v>94.55</v>
@@ -18707,7 +18707,7 @@
         <v>25</v>
       </c>
       <c r="B613">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C613">
         <v>98.569</v>
@@ -18730,7 +18730,7 @@
         <v>25</v>
       </c>
       <c r="B614">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C614">
         <v>103.569</v>
@@ -18753,7 +18753,7 @@
         <v>25</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C615">
         <v>109.496</v>
@@ -18776,7 +18776,7 @@
         <v>26</v>
       </c>
       <c r="B616">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C616">
         <v>107.323</v>
@@ -18799,7 +18799,7 @@
         <v>26</v>
       </c>
       <c r="B617">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C617">
         <v>101.88</v>
@@ -18822,7 +18822,7 @@
         <v>26</v>
       </c>
       <c r="B618">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C618">
         <v>98.134</v>
@@ -18845,7 +18845,7 @@
         <v>26</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C619">
         <v>95.837</v>
@@ -18868,7 +18868,7 @@
         <v>26</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C620">
         <v>94.979</v>
@@ -18891,7 +18891,7 @@
         <v>26</v>
       </c>
       <c r="B621">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C621">
         <v>95.501</v>
@@ -18914,7 +18914,7 @@
         <v>26</v>
       </c>
       <c r="B622">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C622">
         <v>97.212</v>
@@ -18937,7 +18937,7 @@
         <v>26</v>
       </c>
       <c r="B623">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C623">
         <v>100.065</v>
@@ -18960,7 +18960,7 @@
         <v>26</v>
       </c>
       <c r="B624">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C624">
         <v>104.13</v>
@@ -18983,7 +18983,7 @@
         <v>26</v>
       </c>
       <c r="B625">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C625">
         <v>109.377</v>
@@ -19006,7 +19006,7 @@
         <v>27</v>
       </c>
       <c r="B626">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C626">
         <v>108.694</v>
@@ -19029,7 +19029,7 @@
         <v>27</v>
       </c>
       <c r="B627">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C627">
         <v>100.896</v>
@@ -19052,7 +19052,7 @@
         <v>27</v>
       </c>
       <c r="B628">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C628">
         <v>96.618</v>
@@ -19075,7 +19075,7 @@
         <v>27</v>
       </c>
       <c r="B629">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C629">
         <v>95.766</v>
@@ -19098,7 +19098,7 @@
         <v>27</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C630">
         <v>97.091</v>
@@ -19121,7 +19121,7 @@
         <v>27</v>
       </c>
       <c r="B631">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C631">
         <v>99.891</v>
@@ -19144,7 +19144,7 @@
         <v>27</v>
       </c>
       <c r="B632">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C632">
         <v>103.796</v>
@@ -19167,7 +19167,7 @@
         <v>27</v>
       </c>
       <c r="B633">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C633">
         <v>109.267</v>
@@ -19190,7 +19190,7 @@
         <v>28</v>
       </c>
       <c r="B634">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C634">
         <v>109.967</v>
